--- a/biology/Zoologie/Cionodon/Cionodon.xlsx
+++ b/biology/Zoologie/Cionodon/Cionodon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cionodon était un genre douteux de dinosaure herbivore de la fin du Crétacé. Des fossiles furent trouvés au Colorado (États-Unis) et en Alberta (Canada).
-Tout d'abord nommé Cinodon par Cope (1874)[1], il fut renommé Cionodon par ce même Cope en 1875[2].
-Cionodon est reconnu comme nomen dubium car il repose sur des vestiges très fragmentaires[3],[4],[5].
+Tout d'abord nommé Cinodon par Cope (1874), il fut renommé Cionodon par ce même Cope en 1875.
+Cionodon est reconnu comme nomen dubium car il repose sur des vestiges très fragmentaires.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cionodon arctatus (Cope 1874) : nomen dubium[3],[4],[5].
-Cionodon kysylkumensis (Riabinin, 1931/Weishampel et Horner, 1990) : maintenant connu comme Bactrosaurus kysylkumensis (Nessov, 1995)[3],[4],[5].
-Cionodon stenopsis (Cope 1892) : nomen dubium[3],[4],[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cionodon arctatus (Cope 1874) : nomen dubium.
+Cionodon kysylkumensis (Riabinin, 1931/Weishampel et Horner, 1990) : maintenant connu comme Bactrosaurus kysylkumensis (Nessov, 1995).
+Cionodon stenopsis (Cope 1892) : nomen dubium.</t>
         </is>
       </c>
     </row>
@@ -545,7 +559,9 @@
           <t>Inventaire des fossiles retrouvés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>C.arctatus: fragments maxillaires, éléments postcrâniens, vertèbres
 C.kysylkumensis: dents, vertèbres, tibia (?)
@@ -577,7 +593,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liste des dinosaures</t>
         </is>
